--- a/xlsx/country_comparison/field_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_gpt_positive.xlsx
@@ -53,85 +53,85 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">field_gpt_money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_own_country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_happiness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_global_issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_inequality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_taxes_welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_nothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_discrimination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_war_peace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_old_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_immigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_far_right_criticism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_relationships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_global_inequality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_mistrust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field_gpt_animals</t>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own country referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment; climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty; hunger; global inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion; sin; God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal welfare</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/field_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_gpt_positive.xlsx
@@ -858,7 +858,7 @@
         <v>0.124430863501972</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0970257530865497</v>
+        <v>0.0970257530865498</v>
       </c>
       <c r="J10" t="n">
         <v>0.130931378181907</v>
@@ -867,7 +867,7 @@
         <v>0.200997190750907</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0835407777588065</v>
+        <v>0.0835407777588066</v>
       </c>
       <c r="M10" t="n">
         <v>0.0863650268598772</v>
@@ -1116,7 +1116,7 @@
         <v>0.0325947576305133</v>
       </c>
       <c r="M16" t="n">
-        <v>0.101038554592982</v>
+        <v>0.101038554592981</v>
       </c>
     </row>
     <row r="17">
@@ -1250,7 +1250,7 @@
         <v>0.0486409075964138</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0623696912729769</v>
+        <v>0.0623696912729768</v>
       </c>
       <c r="D20" t="n">
         <v>0.0432054951238404</v>
@@ -1303,7 +1303,7 @@
         <v>0.0859855624548705</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0309646486214061</v>
+        <v>0.030964648621406</v>
       </c>
       <c r="H21" t="n">
         <v>0.0472231349421964</v>
@@ -1376,7 +1376,7 @@
         <v>0.0349985902063246</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0238260416955817</v>
+        <v>0.0238260416955818</v>
       </c>
       <c r="E23" t="n">
         <v>0.0474356774216139</v>
@@ -1441,7 +1441,7 @@
         <v>0.00818493177081673</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0266762772195392</v>
+        <v>0.0266762772195391</v>
       </c>
       <c r="M24" t="n">
         <v>0.0455107016673922</v>
@@ -1546,7 +1546,7 @@
         <v>0.00967172640615352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0070095978599204</v>
+        <v>0.00700959785992041</v>
       </c>
       <c r="G27" t="n">
         <v>0.00462864692113419</v>

--- a/xlsx/country_comparison/field_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_gpt_positive.xlsx
@@ -858,16 +858,16 @@
         <v>0.124430863501972</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0970257530865498</v>
+        <v>0.0970257530865497</v>
       </c>
       <c r="J10" t="n">
         <v>0.130931378181907</v>
       </c>
       <c r="K10" t="n">
-        <v>0.200997190750907</v>
+        <v>0.200997190750908</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0835407777588066</v>
+        <v>0.0835407777588065</v>
       </c>
       <c r="M10" t="n">
         <v>0.0863650268598772</v>
@@ -1116,7 +1116,7 @@
         <v>0.0325947576305133</v>
       </c>
       <c r="M16" t="n">
-        <v>0.101038554592981</v>
+        <v>0.101038554592982</v>
       </c>
     </row>
     <row r="17">
@@ -1212,7 +1212,7 @@
         <v>0.0430402466676819</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0387846433732296</v>
+        <v>0.0387846433732295</v>
       </c>
       <c r="E19" t="n">
         <v>0.0208661501428746</v>
@@ -1250,7 +1250,7 @@
         <v>0.0486409075964138</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0623696912729768</v>
+        <v>0.0623696912729769</v>
       </c>
       <c r="D20" t="n">
         <v>0.0432054951238404</v>
@@ -1303,7 +1303,7 @@
         <v>0.0859855624548705</v>
       </c>
       <c r="G21" t="n">
-        <v>0.030964648621406</v>
+        <v>0.0309646486214061</v>
       </c>
       <c r="H21" t="n">
         <v>0.0472231349421964</v>
@@ -1373,7 +1373,7 @@
         <v>0.0344636552157637</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0349985902063246</v>
+        <v>0.0349985902063247</v>
       </c>
       <c r="D23" t="n">
         <v>0.0238260416955818</v>
@@ -1414,7 +1414,7 @@
         <v>0.0307966604133137</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0260658228261369</v>
+        <v>0.026065822826137</v>
       </c>
       <c r="D24" t="n">
         <v>0.0375000644292778</v>
@@ -1441,7 +1441,7 @@
         <v>0.00818493177081673</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0266762772195391</v>
+        <v>0.0266762772195392</v>
       </c>
       <c r="M24" t="n">
         <v>0.0455107016673922</v>
@@ -1499,7 +1499,7 @@
         <v>0.013200544785946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0109759851210914</v>
+        <v>0.0109759851210915</v>
       </c>
       <c r="E26" t="n">
         <v>0.0190552538495168</v>
@@ -1546,7 +1546,7 @@
         <v>0.00967172640615352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00700959785992041</v>
+        <v>0.0070095978599204</v>
       </c>
       <c r="G27" t="n">
         <v>0.00462864692113419</v>

--- a/xlsx/country_comparison/field_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_gpt_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -56,39 +59,39 @@
     <t xml:space="preserve">Money; own income; cost of living; inflation</t>
   </si>
   <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Other topic; unclear; vague</t>
-  </si>
-  <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Poverty; inequality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Health; healthcare system</t>
   </si>
   <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
-  </si>
-  <si>
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
@@ -113,10 +116,10 @@
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
   </si>
   <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
@@ -503,13 +506,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260454235669543</v>
+        <v>0.261430426418771</v>
       </c>
       <c r="C2" t="n">
         <v>0.213155009427415</v>
@@ -536,103 +542,112 @@
         <v>0.177715338447706</v>
       </c>
       <c r="K2" t="n">
-        <v>0.260840905978864</v>
+        <v>0.260792430161552</v>
       </c>
       <c r="L2" t="n">
+        <v>0.266466281326953</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.212880947595595</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.318492966758757</v>
+      <c r="N2" t="n">
+        <v>0.318691393003651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.205376997110087</v>
+        <v>0.193129971759031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168238677567302</v>
+        <v>0.168042966936304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.138216962169262</v>
+        <v>0.165399128586151</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200760606141051</v>
+        <v>0.173561925142623</v>
       </c>
       <c r="F3" t="n">
-        <v>0.139635667949757</v>
+        <v>0.166984384318785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.149199844363949</v>
+        <v>0.162904634547832</v>
       </c>
       <c r="H3" t="n">
-        <v>0.156359524123887</v>
+        <v>0.141968032019504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.206447985124471</v>
+        <v>0.187099641286744</v>
       </c>
       <c r="J3" t="n">
-        <v>0.142605293769109</v>
+        <v>0.165992503258714</v>
       </c>
       <c r="K3" t="n">
-        <v>0.225626835922926</v>
+        <v>0.166603651034648</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0780758012131129</v>
+        <v>0.205360523831471</v>
       </c>
       <c r="M3" t="n">
-        <v>0.251002759764981</v>
+        <v>0.291677779337577</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.218219751764558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.191119669252924</v>
+        <v>0.188507894077356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.168042966936304</v>
+        <v>0.168238677567302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.165399128586151</v>
+        <v>0.138216962169262</v>
       </c>
       <c r="E4" t="n">
-        <v>0.173561925142623</v>
+        <v>0.200760606141051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.166984384318785</v>
+        <v>0.139635667949757</v>
       </c>
       <c r="G4" t="n">
-        <v>0.162904634547832</v>
+        <v>0.149199844363949</v>
       </c>
       <c r="H4" t="n">
-        <v>0.141968032019504</v>
+        <v>0.156359524123887</v>
       </c>
       <c r="I4" t="n">
-        <v>0.187099641286744</v>
+        <v>0.206447985124471</v>
       </c>
       <c r="J4" t="n">
-        <v>0.165992503258714</v>
+        <v>0.142605293769109</v>
       </c>
       <c r="K4" t="n">
-        <v>0.166643444547848</v>
+        <v>0.225686061670453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.291677779337577</v>
+        <v>0.0849950159023621</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2182594679966</v>
+        <v>0.0780758012131129</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.250731263580074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17051132407043</v>
+        <v>0.166281577578614</v>
       </c>
       <c r="C5" t="n">
         <v>0.152955925063501</v>
@@ -659,226 +674,244 @@
         <v>0.132690597455201</v>
       </c>
       <c r="K5" t="n">
-        <v>0.116820992268347</v>
+        <v>0.116880553649116</v>
       </c>
       <c r="L5" t="n">
+        <v>0.13980350624142</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.297999291957908</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.200532387075721</v>
+      <c r="N5" t="n">
+        <v>0.200595693543283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.142217350500974</v>
+        <v>0.139619752663252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158473802734162</v>
+        <v>0.161221442639036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.117191756501476</v>
+        <v>0.15921861178642</v>
       </c>
       <c r="E6" t="n">
-        <v>0.17514999284666</v>
+        <v>0.178866463214826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.19308546053537</v>
+        <v>0.174607951895274</v>
       </c>
       <c r="G6" t="n">
-        <v>0.160110887523313</v>
+        <v>0.162730359164304</v>
       </c>
       <c r="H6" t="n">
-        <v>0.110393790140739</v>
+        <v>0.140292368993649</v>
       </c>
       <c r="I6" t="n">
-        <v>0.177603866992446</v>
+        <v>0.14186410272206</v>
       </c>
       <c r="J6" t="n">
-        <v>0.185401404237611</v>
+        <v>0.168796104081607</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0784019080954582</v>
+        <v>0.153342104867865</v>
       </c>
       <c r="L6" t="n">
-        <v>0.134924188834666</v>
+        <v>0.142666136016347</v>
       </c>
       <c r="M6" t="n">
-        <v>0.149566229625994</v>
+        <v>0.122512960452038</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.109859711659004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.139167237594676</v>
+        <v>0.137231269496131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161221442639036</v>
+        <v>0.113211436167794</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15921861178642</v>
+        <v>0.146006624502133</v>
       </c>
       <c r="E7" t="n">
-        <v>0.178866463214826</v>
+        <v>0.113425019137474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.174607951895274</v>
+        <v>0.0663916557787769</v>
       </c>
       <c r="G7" t="n">
-        <v>0.162730359164304</v>
+        <v>0.139686149742416</v>
       </c>
       <c r="H7" t="n">
-        <v>0.140292368993649</v>
+        <v>0.124430863501972</v>
       </c>
       <c r="I7" t="n">
-        <v>0.14186410272206</v>
+        <v>0.0970257530865497</v>
       </c>
       <c r="J7" t="n">
-        <v>0.168796104081607</v>
+        <v>0.130931378181907</v>
       </c>
       <c r="K7" t="n">
-        <v>0.153390520093675</v>
+        <v>0.200964104561661</v>
       </c>
       <c r="L7" t="n">
-        <v>0.122512960452038</v>
+        <v>0.27266648341035</v>
       </c>
       <c r="M7" t="n">
-        <v>0.109836907931902</v>
+        <v>0.0835407777588066</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0864179066545748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.125978992974372</v>
+        <v>0.128366522531166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.14619569181885</v>
+        <v>0.158473802734162</v>
       </c>
       <c r="D8" t="n">
-        <v>0.132907354504722</v>
+        <v>0.117191756501476</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11806265972999</v>
+        <v>0.17514999284666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.156772413054041</v>
+        <v>0.19308546053537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.146639035004394</v>
+        <v>0.160110887523313</v>
       </c>
       <c r="H8" t="n">
-        <v>0.175635583766907</v>
+        <v>0.110393790140739</v>
       </c>
       <c r="I8" t="n">
-        <v>0.166409368232189</v>
+        <v>0.177603866992446</v>
       </c>
       <c r="J8" t="n">
-        <v>0.126965839486197</v>
+        <v>0.185401404237611</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0671803346941006</v>
+        <v>0.0784613908644436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0634325989268087</v>
+        <v>0.0426875498566903</v>
       </c>
       <c r="M8" t="n">
-        <v>0.131705538285593</v>
+        <v>0.134924188834666</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.149751776999499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122995477052062</v>
+        <v>0.127630789631772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.113754809236279</v>
+        <v>0.14619569181885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.103668452647744</v>
+        <v>0.132907354504722</v>
       </c>
       <c r="E9" t="n">
-        <v>0.167171914073891</v>
+        <v>0.11806265972999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0850636422901817</v>
+        <v>0.156772413054041</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0510573071672393</v>
+        <v>0.146639035004394</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0898968553304831</v>
+        <v>0.175635583766907</v>
       </c>
       <c r="I9" t="n">
-        <v>0.138105101647467</v>
+        <v>0.166409368232189</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0992336911688921</v>
+        <v>0.126965839486197</v>
       </c>
       <c r="K9" t="n">
-        <v>0.233671829195114</v>
+        <v>0.0672309549509479</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0207611973886115</v>
+        <v>0.137940991050432</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0987711241419513</v>
+        <v>0.0634325989268087</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.131594947574719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.115221745437733</v>
+        <v>0.11461145858916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.113211436167794</v>
+        <v>0.113754809236279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.146006624502133</v>
+        <v>0.103668452647744</v>
       </c>
       <c r="E10" t="n">
-        <v>0.113425019137474</v>
+        <v>0.167171914073891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0663916557787769</v>
+        <v>0.0850636422901817</v>
       </c>
       <c r="G10" t="n">
-        <v>0.139686149742416</v>
+        <v>0.0510573071672393</v>
       </c>
       <c r="H10" t="n">
-        <v>0.124430863501972</v>
+        <v>0.0898968553304831</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0970257530865497</v>
+        <v>0.138105101647467</v>
       </c>
       <c r="J10" t="n">
-        <v>0.130931378181907</v>
+        <v>0.0992336911688921</v>
       </c>
       <c r="K10" t="n">
-        <v>0.200997190750908</v>
+        <v>0.233708733930122</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0835407777588065</v>
+        <v>0.0636247918853656</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0863650268598772</v>
+        <v>0.0207611973886115</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0986241859205563</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0982779332002267</v>
+        <v>0.0899728984569194</v>
       </c>
       <c r="C11" t="n">
         <v>0.099753810932012</v>
@@ -905,103 +938,112 @@
         <v>0.071052087168452</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0466833709031623</v>
+        <v>0.0467156656045959</v>
       </c>
       <c r="L11" t="n">
+        <v>0.0385415204184977</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.0800510657090976</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.118626396156632</v>
+      <c r="N11" t="n">
+        <v>0.118700092319621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0866003547918997</v>
+        <v>0.0831227660471743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0801606130053347</v>
+        <v>0.0812222356073206</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0853143000988915</v>
+        <v>0.0796153051139035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0854716178134182</v>
+        <v>0.0781231459534225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0845599979045629</v>
+        <v>0.113371978366102</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0325015769502991</v>
+        <v>0.0500459267911085</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0680430990380986</v>
+        <v>0.0923600661534072</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0981141721056102</v>
+        <v>0.0701822668589844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.100751012095868</v>
+        <v>0.0587659966404984</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0596465598162327</v>
+        <v>0.0771282209166118</v>
       </c>
       <c r="L12" t="n">
-        <v>0.100448138308641</v>
+        <v>0.0718452344606429</v>
       </c>
       <c r="M12" t="n">
-        <v>0.10339546396711</v>
+        <v>0.170406210435075</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0847691335720751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0849753695971444</v>
+        <v>0.0790233557753031</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0812222356073206</v>
+        <v>0.0801606130053347</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0796153051139035</v>
+        <v>0.0853143000988915</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0781231459534225</v>
+        <v>0.0854716178134182</v>
       </c>
       <c r="F13" t="n">
-        <v>0.113371978366102</v>
+        <v>0.0845599979045629</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0500459267911085</v>
+        <v>0.0325015769502991</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0923600661534072</v>
+        <v>0.0680430990380986</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0701822668589844</v>
+        <v>0.0981141721056102</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0587659966404984</v>
+        <v>0.100751012095868</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0771545698600954</v>
+        <v>0.0596500618249719</v>
       </c>
       <c r="L13" t="n">
-        <v>0.170406210435075</v>
+        <v>0.0322779557721214</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0848039172920553</v>
+        <v>0.100448138308641</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.103404378607846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0797719942498349</v>
+        <v>0.078176796535733</v>
       </c>
       <c r="C14" t="n">
         <v>0.0702572220672497</v>
@@ -1028,21 +1070,24 @@
         <v>0.0556416961094614</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08616137993491</v>
+        <v>0.0861912889898547</v>
       </c>
       <c r="L14" t="n">
+        <v>0.0682566695547659</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.11442732319241</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.0850400209457187</v>
+      <c r="N14" t="n">
+        <v>0.0850570554794627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0793198425464319</v>
+        <v>0.0725300886722206</v>
       </c>
       <c r="C15" t="n">
         <v>0.0563793023126139</v>
@@ -1069,21 +1114,24 @@
         <v>0.0649487138409633</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0220184393003483</v>
+        <v>0.0220185467638654</v>
       </c>
       <c r="L15" t="n">
+        <v>0.0304742107781915</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.0933851476056343</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.126941726231368</v>
+      <c r="N15" t="n">
+        <v>0.126892439827599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0727821334881775</v>
+        <v>0.0677123030756493</v>
       </c>
       <c r="C16" t="n">
         <v>0.0578616695179936</v>
@@ -1110,21 +1158,24 @@
         <v>0.0292188167454172</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0533935795961807</v>
+        <v>0.0533987688193951</v>
       </c>
       <c r="L16" t="n">
+        <v>0.0364844752028973</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.0325947576305133</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.101038554592982</v>
+      <c r="N16" t="n">
+        <v>0.100954330745912</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0721315104771403</v>
+        <v>0.0674554260486835</v>
       </c>
       <c r="C17" t="n">
         <v>0.10232468739037</v>
@@ -1151,21 +1202,24 @@
         <v>0.112948622030152</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0329155821505125</v>
+        <v>0.0329470287190058</v>
       </c>
       <c r="L17" t="n">
+        <v>0.0387360313722817</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.0833920697125504</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.0521963171345853</v>
+      <c r="N17" t="n">
+        <v>0.0522559466364969</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0578653478303487</v>
+        <v>0.057722068748991</v>
       </c>
       <c r="C18" t="n">
         <v>0.0543489089771913</v>
@@ -1192,27 +1246,30 @@
         <v>0.0423610581179051</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0920482122935384</v>
+        <v>0.0920978163106118</v>
       </c>
       <c r="L18" t="n">
+        <v>0.0568613820699931</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.0278725665029632</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.050999744017915</v>
+      <c r="N18" t="n">
+        <v>0.0509990894062635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488928545616435</v>
+        <v>0.0520337111624595</v>
       </c>
       <c r="C19" t="n">
         <v>0.0430402466676819</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0387846433732295</v>
+        <v>0.0387846433732296</v>
       </c>
       <c r="E19" t="n">
         <v>0.0208661501428746</v>
@@ -1233,24 +1290,27 @@
         <v>0.031240191708632</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00953049610278297</v>
+        <v>0.00953300111287055</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0426027285771167</v>
+        <v>0.070886191602352</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0717092409438445</v>
+        <v>0.0426027285771168</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0718089512570315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0486409075964138</v>
+        <v>0.0425167368315999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0623696912729769</v>
+        <v>0.0623696912729768</v>
       </c>
       <c r="D20" t="n">
         <v>0.0432054951238404</v>
@@ -1274,21 +1334,24 @@
         <v>0.0654470962506232</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0151219997894545</v>
+        <v>0.0151330081949056</v>
       </c>
       <c r="L20" t="n">
+        <v>0.00476136709085499</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.00664638938634734</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.0499500552681713</v>
+      <c r="N20" t="n">
+        <v>0.0499914059308144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0443065819936338</v>
+        <v>0.0396574960992112</v>
       </c>
       <c r="C21" t="n">
         <v>0.0602528943097674</v>
@@ -1303,7 +1366,7 @@
         <v>0.0859855624548705</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0309646486214061</v>
+        <v>0.030964648621406</v>
       </c>
       <c r="H21" t="n">
         <v>0.0472231349421964</v>
@@ -1315,106 +1378,115 @@
         <v>0.0715384486964359</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0166309604102695</v>
+        <v>0.0166432031700156</v>
       </c>
       <c r="L21" t="n">
+        <v>0.0109638490370729</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.0446771743762618</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.0370273168366061</v>
+      <c r="N21" t="n">
+        <v>0.0371038343166649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03671109768914</v>
+        <v>0.034937053396522</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0221888559313523</v>
+        <v>0.0349985902063246</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0203413419688437</v>
+        <v>0.0238260416955818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0360329711791016</v>
+        <v>0.0474356774216139</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0183775207747611</v>
+        <v>0.0232900907469467</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0130265735791502</v>
+        <v>0.0168552267532988</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00782657356439227</v>
+        <v>0.0482647209891583</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0265744417508795</v>
+        <v>0.0406882583340169</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0162460400747766</v>
+        <v>0.0441425932727078</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0209841101210661</v>
+        <v>0.0308161109688691</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0377990184551303</v>
       </c>
       <c r="M22" t="n">
-        <v>0.062756426164009</v>
+        <v>0.0823836262269915</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0310951175291397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0344636552157637</v>
+        <v>0.0319207172273229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0349985902063247</v>
+        <v>0.0221888559313523</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0238260416955818</v>
+        <v>0.0203413419688437</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0474356774216139</v>
+        <v>0.0360329711791016</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0232900907469467</v>
+        <v>0.0183775207747611</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0168552267532988</v>
+        <v>0.0130265735791502</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0482647209891583</v>
+        <v>0.00782657356439227</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0406882583340169</v>
+        <v>0.0265744417508795</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0441425932727078</v>
+        <v>0.0162460400747766</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0308059262702515</v>
+        <v>0.0209843554382521</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0823836262269915</v>
+        <v>0.00233166104170893</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0310654394592625</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0627164504353315</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0307966604133137</v>
+        <v>0.03061160167509</v>
       </c>
       <c r="C24" t="n">
-        <v>0.026065822826137</v>
+        <v>0.0260658228261369</v>
       </c>
       <c r="D24" t="n">
         <v>0.0375000644292778</v>
@@ -1438,21 +1510,24 @@
         <v>0.0284237830154765</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00818493177081673</v>
+        <v>0.008183515499288</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0266762772195392</v>
+        <v>0.0289730950969755</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0455107016673922</v>
+        <v>0.0266762772195391</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0456662572903037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0298036211767955</v>
+        <v>0.0261890508068813</v>
       </c>
       <c r="C25" t="n">
         <v>0.0433933477707763</v>
@@ -1479,27 +1554,30 @@
         <v>0.0283003758798304</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00856415266629772</v>
+        <v>0.00855269927237337</v>
       </c>
       <c r="L25" t="n">
+        <v>0.00406007415130141</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.0257250537099751</v>
       </c>
-      <c r="M25" t="n">
-        <v>0.0230598460027451</v>
+      <c r="N25" t="n">
+        <v>0.0230553157487307</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017292803464895</v>
+        <v>0.0189688626296125</v>
       </c>
       <c r="C26" t="n">
         <v>0.013200544785946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0109759851210915</v>
+        <v>0.0109759851210914</v>
       </c>
       <c r="E26" t="n">
         <v>0.0190552538495168</v>
@@ -1520,21 +1598,24 @@
         <v>0.0109953902320993</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00539104215297181</v>
+        <v>0.00540164432726636</v>
       </c>
       <c r="L26" t="n">
+        <v>0.029151724116239</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.0133724511214612</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.0270211042385676</v>
+      <c r="N26" t="n">
+        <v>0.0270281640177599</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0124800126194247</v>
+        <v>0.0112456390108068</v>
       </c>
       <c r="C27" t="n">
         <v>0.00809045422843843</v>
@@ -1546,7 +1627,7 @@
         <v>0.00967172640615352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0070095978599204</v>
+        <v>0.00700959785992041</v>
       </c>
       <c r="G27" t="n">
         <v>0.00462864692113419</v>
@@ -1561,21 +1642,24 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00291216419051274</v>
+        <v>0.00291868615755418</v>
       </c>
       <c r="L27" t="n">
+        <v>0.00353750662401203</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.0381650364262127</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.0190071554093513</v>
+      <c r="N27" t="n">
+        <v>0.019030712161605</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0095485964838053</v>
+        <v>0.00845068692168742</v>
       </c>
       <c r="C28" t="n">
         <v>0.0108919270462064</v>
@@ -1602,13 +1686,16 @@
         <v>0.0118130103454457</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00457312153853844</v>
+        <v>0.00457045492626606</v>
       </c>
       <c r="L28" t="n">
+        <v>0.00167154353708458</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.00247712756110292</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.0106097248469371</v>
+      <c r="N28" t="n">
+        <v>0.0106201738289977</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_gpt_positive.xlsx
+++ b/xlsx/country_comparison/field_gpt_positive.xlsx
@@ -89,10 +89,10 @@
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.261430426418771</v>
+        <v>0.261037795077051</v>
       </c>
       <c r="C2" t="n">
         <v>0.213155009427415</v>
@@ -545,7 +545,7 @@
         <v>0.260792430161552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.266466281326953</v>
+        <v>0.263660744832401</v>
       </c>
       <c r="M2" t="n">
         <v>0.212880947595595</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193129971759031</v>
+        <v>0.19287692482063</v>
       </c>
       <c r="C3" t="n">
         <v>0.168042966936304</v>
@@ -589,7 +589,7 @@
         <v>0.166603651034648</v>
       </c>
       <c r="L3" t="n">
-        <v>0.205360523831471</v>
+        <v>0.20355238386636</v>
       </c>
       <c r="M3" t="n">
         <v>0.291677779337577</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188507894077356</v>
+        <v>0.188436644013223</v>
       </c>
       <c r="C4" t="n">
         <v>0.168238677567302</v>
@@ -633,7 +633,7 @@
         <v>0.225686061670453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0849950159023621</v>
+        <v>0.084485900521279</v>
       </c>
       <c r="M4" t="n">
         <v>0.0780758012131129</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.166281577578614</v>
+        <v>0.165026496197311</v>
       </c>
       <c r="C5" t="n">
         <v>0.152955925063501</v>
@@ -677,7 +677,7 @@
         <v>0.116880553649116</v>
       </c>
       <c r="L5" t="n">
-        <v>0.13980350624142</v>
+        <v>0.130835356619311</v>
       </c>
       <c r="M5" t="n">
         <v>0.297999291957908</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.139619752663252</v>
+        <v>0.13881451950498</v>
       </c>
       <c r="C6" t="n">
         <v>0.161221442639036</v>
@@ -721,7 +721,7 @@
         <v>0.153342104867865</v>
       </c>
       <c r="L6" t="n">
-        <v>0.142666136016347</v>
+        <v>0.136912364546507</v>
       </c>
       <c r="M6" t="n">
         <v>0.122512960452038</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.137231269496131</v>
+        <v>0.138273185837646</v>
       </c>
       <c r="C7" t="n">
         <v>0.113211436167794</v>
@@ -765,7 +765,7 @@
         <v>0.200964104561661</v>
       </c>
       <c r="L7" t="n">
-        <v>0.27266648341035</v>
+        <v>0.280111468081168</v>
       </c>
       <c r="M7" t="n">
         <v>0.0835407777588066</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128366522531166</v>
+        <v>0.128826472505465</v>
       </c>
       <c r="C8" t="n">
         <v>0.158473802734162</v>
@@ -809,7 +809,7 @@
         <v>0.0784613908644436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0426875498566903</v>
+        <v>0.0459741097958687</v>
       </c>
       <c r="M8" t="n">
         <v>0.134924188834666</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127630789631772</v>
+        <v>0.127106283277647</v>
       </c>
       <c r="C9" t="n">
         <v>0.14619569181885</v>
@@ -835,7 +835,7 @@
         <v>0.11806265972999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.156772413054041</v>
+        <v>0.15677241305404</v>
       </c>
       <c r="G9" t="n">
         <v>0.146639035004394</v>
@@ -853,7 +853,7 @@
         <v>0.0672309549509479</v>
       </c>
       <c r="L9" t="n">
-        <v>0.137940991050432</v>
+        <v>0.134193145267982</v>
       </c>
       <c r="M9" t="n">
         <v>0.0634325989268087</v>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.11461145858916</v>
+        <v>0.114455094191174</v>
       </c>
       <c r="C10" t="n">
         <v>0.113754809236279</v>
@@ -897,7 +897,7 @@
         <v>0.233708733930122</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0636247918853656</v>
+        <v>0.0625074943637807</v>
       </c>
       <c r="M10" t="n">
         <v>0.0207611973886115</v>
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0899728984569194</v>
+        <v>0.0900921929978382</v>
       </c>
       <c r="C11" t="n">
         <v>0.099753810932012</v>
@@ -941,7 +941,7 @@
         <v>0.0467156656045959</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0385415204184977</v>
+        <v>0.0393939362920809</v>
       </c>
       <c r="M11" t="n">
         <v>0.0800510657090976</v>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0831227660471743</v>
+        <v>0.0827364469588425</v>
       </c>
       <c r="C12" t="n">
         <v>0.0812222356073206</v>
@@ -964,7 +964,7 @@
         <v>0.0796153051139035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0781231459534225</v>
+        <v>0.0781231459534224</v>
       </c>
       <c r="F12" t="n">
         <v>0.113371978366102</v>
@@ -985,7 +985,7 @@
         <v>0.0771282209166118</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0718452344606429</v>
+        <v>0.0690848019997287</v>
       </c>
       <c r="M12" t="n">
         <v>0.170406210435075</v>
@@ -999,43 +999,43 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0790233557753031</v>
+        <v>0.0782534856915513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0801606130053347</v>
+        <v>0.0702572220672497</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0853143000988915</v>
+        <v>0.0598568390567794</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0854716178134182</v>
+        <v>0.0498847795322759</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0845599979045629</v>
+        <v>0.0725313941240774</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0325015769502991</v>
+        <v>0.0713429670037117</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0680430990380986</v>
+        <v>0.0595647178068743</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0981141721056102</v>
+        <v>0.113866367038356</v>
       </c>
       <c r="J13" t="n">
-        <v>0.100751012095868</v>
+        <v>0.0556416961094614</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0596500618249719</v>
+        <v>0.0861912889898547</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0322779557721214</v>
+        <v>0.0688046498164585</v>
       </c>
       <c r="M13" t="n">
-        <v>0.100448138308641</v>
+        <v>0.11442732319241</v>
       </c>
       <c r="N13" t="n">
-        <v>0.103404378607846</v>
+        <v>0.0850570554794627</v>
       </c>
     </row>
     <row r="14">
@@ -1043,43 +1043,43 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.078176796535733</v>
+        <v>0.0782025760992126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0702572220672497</v>
+        <v>0.0801606130053347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0598568390567794</v>
+        <v>0.0853143000988915</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0498847795322759</v>
+        <v>0.0854716178134182</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0725313941240774</v>
+        <v>0.0845599979045629</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0713429670037117</v>
+        <v>0.0325015769502991</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0595647178068743</v>
+        <v>0.0680430990380986</v>
       </c>
       <c r="I14" t="n">
-        <v>0.113866367038356</v>
+        <v>0.0981141721056102</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0556416961094614</v>
+        <v>0.100751012095868</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0861912889898547</v>
+        <v>0.0596500618249719</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0682566695547659</v>
+        <v>0.0264130970851678</v>
       </c>
       <c r="M14" t="n">
-        <v>0.11442732319241</v>
+        <v>0.100448138308641</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0850570554794627</v>
+        <v>0.103404378607846</v>
       </c>
     </row>
     <row r="15">
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0725300886722206</v>
+        <v>0.0719975965782097</v>
       </c>
       <c r="C15" t="n">
         <v>0.0563793023126139</v>
@@ -1117,7 +1117,7 @@
         <v>0.0220185467638654</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0304742107781915</v>
+        <v>0.0266693031101935</v>
       </c>
       <c r="M15" t="n">
         <v>0.0933851476056343</v>
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0677123030756493</v>
+        <v>0.0678510222497633</v>
       </c>
       <c r="C16" t="n">
         <v>0.0578616695179936</v>
@@ -1161,7 +1161,7 @@
         <v>0.0533987688193951</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0364844752028973</v>
+        <v>0.0374756892607604</v>
       </c>
       <c r="M16" t="n">
         <v>0.0325947576305133</v>
@@ -1175,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0674554260486835</v>
+        <v>0.0671132616697566</v>
       </c>
       <c r="C17" t="n">
         <v>0.10232468739037</v>
@@ -1205,7 +1205,7 @@
         <v>0.0329470287190058</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0387360313722817</v>
+        <v>0.0362911051776244</v>
       </c>
       <c r="M17" t="n">
         <v>0.0833920697125504</v>
@@ -1219,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.057722068748991</v>
+        <v>0.057396255145867</v>
       </c>
       <c r="C18" t="n">
         <v>0.0543489089771913</v>
@@ -1249,7 +1249,7 @@
         <v>0.0920978163106118</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0568613820699931</v>
+        <v>0.0545332898958408</v>
       </c>
       <c r="M18" t="n">
         <v>0.0278725665029632</v>
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0520337111624595</v>
+        <v>0.0519052111375239</v>
       </c>
       <c r="C19" t="n">
         <v>0.0430402466676819</v>
@@ -1293,10 +1293,10 @@
         <v>0.00953300111287055</v>
       </c>
       <c r="L19" t="n">
-        <v>0.070886191602352</v>
+        <v>0.0699679981949483</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0426027285771168</v>
+        <v>0.0426027285771167</v>
       </c>
       <c r="N19" t="n">
         <v>0.0718089512570315</v>
@@ -1307,10 +1307,10 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0425167368315999</v>
+        <v>0.042448802314565</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0623696912729768</v>
+        <v>0.0623696912729769</v>
       </c>
       <c r="D20" t="n">
         <v>0.0432054951238404</v>
@@ -1337,7 +1337,7 @@
         <v>0.0151330081949056</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00476136709085499</v>
+        <v>0.00427594286072039</v>
       </c>
       <c r="M20" t="n">
         <v>0.00664638938634734</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0396574960992112</v>
+        <v>0.0400453044786933</v>
       </c>
       <c r="C21" t="n">
         <v>0.0602528943097674</v>
@@ -1378,10 +1378,10 @@
         <v>0.0715384486964359</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0166432031700156</v>
+        <v>0.0166432031700155</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0109638490370729</v>
+        <v>0.0137349231870967</v>
       </c>
       <c r="M21" t="n">
         <v>0.0446771743762618</v>
@@ -1395,13 +1395,13 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.034937053396522</v>
+        <v>0.0350372005822907</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0349985902063246</v>
+        <v>0.0349985902063247</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0238260416955818</v>
+        <v>0.0238260416955817</v>
       </c>
       <c r="E22" t="n">
         <v>0.0474356774216139</v>
@@ -1425,7 +1425,7 @@
         <v>0.0308161109688691</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0377990184551303</v>
+        <v>0.0385146174271064</v>
       </c>
       <c r="M22" t="n">
         <v>0.0823836262269915</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0319207172273229</v>
+        <v>0.0317780452883306</v>
       </c>
       <c r="C23" t="n">
         <v>0.0221888559313523</v>
@@ -1469,7 +1469,7 @@
         <v>0.0209843554382521</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00233166104170893</v>
+        <v>0.00131220261070944</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03061160167509</v>
+        <v>0.0309368248291205</v>
       </c>
       <c r="C24" t="n">
         <v>0.0260658228261369</v>
@@ -1513,7 +1513,7 @@
         <v>0.008183515499288</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0289730950969755</v>
+        <v>0.0312969682333077</v>
       </c>
       <c r="M24" t="n">
         <v>0.0266762772195391</v>
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0261890508068813</v>
+        <v>0.0262552506904307</v>
       </c>
       <c r="C25" t="n">
         <v>0.0433933477707763</v>
@@ -1557,7 +1557,7 @@
         <v>0.00855269927237337</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00406007415130141</v>
+        <v>0.00453310360539263</v>
       </c>
       <c r="M25" t="n">
         <v>0.0257250537099751</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0189688626296125</v>
+        <v>0.0191186000044473</v>
       </c>
       <c r="C26" t="n">
         <v>0.013200544785946</v>
@@ -1601,7 +1601,7 @@
         <v>0.00540164432726636</v>
       </c>
       <c r="L26" t="n">
-        <v>0.029151724116239</v>
+        <v>0.0302216684254651</v>
       </c>
       <c r="M26" t="n">
         <v>0.0133724511214612</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0112456390108068</v>
+        <v>0.0112777986161369</v>
       </c>
       <c r="C27" t="n">
         <v>0.00809045422843843</v>
@@ -1627,7 +1627,7 @@
         <v>0.00967172640615352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00700959785992041</v>
+        <v>0.0070095978599204</v>
       </c>
       <c r="G27" t="n">
         <v>0.00462864692113419</v>
@@ -1645,7 +1645,7 @@
         <v>0.00291868615755418</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00353750662401203</v>
+        <v>0.00376730220275702</v>
       </c>
       <c r="M27" t="n">
         <v>0.0381650364262127</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00845068692168742</v>
+        <v>0.00847546908801203</v>
       </c>
       <c r="C28" t="n">
         <v>0.0108919270462064</v>
@@ -1689,7 +1689,7 @@
         <v>0.00457045492626606</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00167154353708458</v>
+        <v>0.0018486238275502</v>
       </c>
       <c r="M28" t="n">
         <v>0.00247712756110292</v>
